--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="104">
   <si>
     <t>TCID</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>http://preuat.invessence.com:8080/login.xhtml</t>
+  </si>
+  <si>
+    <t>accountnumber</t>
+  </si>
+  <si>
+    <t>clientacctnumber</t>
   </si>
 </sst>
 </file>
@@ -692,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AX8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,10 +719,10 @@
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="46" width="13.85546875" style="3" customWidth="1"/>
+    <col min="40" max="48" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,14 +861,20 @@
       <c r="AT1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW1" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1001,12 +1013,14 @@
       <c r="AT2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="2"/>
+      <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1145,12 +1159,14 @@
       <c r="AT3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" t="s">
         <v>13</v>
       </c>
-      <c r="AV3" s="2"/>
+      <c r="AX3" s="2"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1289,12 +1305,14 @@
       <c r="AT4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" t="s">
         <v>13</v>
       </c>
-      <c r="AV4" s="2"/>
+      <c r="AX4" s="2"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1433,12 +1451,14 @@
       <c r="AT5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" t="s">
         <v>13</v>
       </c>
-      <c r="AV5" s="2"/>
+      <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1577,12 +1597,14 @@
       <c r="AT6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" t="s">
         <v>13</v>
       </c>
-      <c r="AV6" s="2"/>
+      <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1721,12 +1743,14 @@
       <c r="AT7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" t="s">
         <v>13</v>
       </c>
-      <c r="AV7" s="2"/>
+      <c r="AX7" s="2"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1865,10 +1889,12 @@
       <c r="AT8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" t="s">
         <v>10</v>
       </c>
-      <c r="AV8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="105">
   <si>
     <t>TCID</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>clientacctnumber</t>
+  </si>
+  <si>
+    <t>http://uat.invessence.com:8080/login.xhtml</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <dimension ref="A1:AX8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +716,9 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="12" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="23" width="13.85546875" style="3" customWidth="1"/>
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
@@ -879,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1016,7 +1021,7 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
       <c r="AW2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX2" s="2"/>
     </row>
@@ -1892,7 +1897,7 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
       <c r="AW8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX8" s="2"/>
     </row>

--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="107">
   <si>
     <t>TCID</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>http://uat.invessence.com:8080/login.xhtml</t>
+  </si>
+  <si>
+    <t>Changeobjective</t>
+  </si>
+  <si>
+    <t>Recurringflag</t>
   </si>
 </sst>
 </file>
@@ -701,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +730,10 @@
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="48" width="13.85546875" style="3" customWidth="1"/>
+    <col min="40" max="50" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -872,14 +878,20 @@
       <c r="AV1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY1" t="s">
         <v>9</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1020,12 +1032,16 @@
       </c>
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
-      <c r="AW2" t="s">
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AX2" s="2"/>
+      <c r="AY2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ2" s="2"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1166,12 +1182,14 @@
       </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AW3" t="s">
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="2"/>
+      <c r="AZ3" s="2"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1312,12 +1330,14 @@
       </c>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
-      <c r="AW4" t="s">
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" t="s">
         <v>13</v>
       </c>
-      <c r="AX4" s="2"/>
+      <c r="AZ4" s="2"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1458,12 +1478,14 @@
       </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
-      <c r="AW5" t="s">
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" t="s">
         <v>13</v>
       </c>
-      <c r="AX5" s="2"/>
+      <c r="AZ5" s="2"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1604,12 +1626,14 @@
       </c>
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
-      <c r="AW6" t="s">
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" t="s">
         <v>13</v>
       </c>
-      <c r="AX6" s="2"/>
+      <c r="AZ6" s="2"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1750,12 +1774,14 @@
       </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
-      <c r="AW7" t="s">
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" t="s">
         <v>13</v>
       </c>
-      <c r="AX7" s="2"/>
+      <c r="AZ7" s="2"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1896,10 +1922,12 @@
       </c>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
-      <c r="AW8" t="s">
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" t="s">
         <v>13</v>
       </c>
-      <c r="AX8" s="2"/>
+      <c r="AZ8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="148">
   <si>
     <t>TCID</t>
   </si>
@@ -334,13 +334,136 @@
     <t>clientacctnumber</t>
   </si>
   <si>
-    <t>http://uat.invessence.com:8080/login.xhtml</t>
-  </si>
-  <si>
-    <t>Changeobjective</t>
-  </si>
-  <si>
     <t>Recurringflag</t>
+  </si>
+  <si>
+    <t>fundingflag</t>
+  </si>
+  <si>
+    <t>accounttitle</t>
+  </si>
+  <si>
+    <t>accounttype1</t>
+  </si>
+  <si>
+    <t>deliveringfirm</t>
+  </si>
+  <si>
+    <t>testfirm</t>
+  </si>
+  <si>
+    <t>testaccttitle</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vlogo</t>
+  </si>
+  <si>
+    <t>BuildingBenjamins-identity.png</t>
+  </si>
+  <si>
+    <t>25001</t>
+  </si>
+  <si>
+    <t>25002</t>
+  </si>
+  <si>
+    <t>25003</t>
+  </si>
+  <si>
+    <t>25004</t>
+  </si>
+  <si>
+    <t>25005</t>
+  </si>
+  <si>
+    <t>25006</t>
+  </si>
+  <si>
+    <t>25007</t>
+  </si>
+  <si>
+    <t>25008</t>
+  </si>
+  <si>
+    <t>25009</t>
+  </si>
+  <si>
+    <t>25010</t>
+  </si>
+  <si>
+    <t>25011</t>
+  </si>
+  <si>
+    <t>25012</t>
+  </si>
+  <si>
+    <t>25013</t>
+  </si>
+  <si>
+    <t>25014</t>
+  </si>
+  <si>
+    <t>25015</t>
+  </si>
+  <si>
+    <t>25016</t>
+  </si>
+  <si>
+    <t>25017</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>ACAT</t>
+  </si>
+  <si>
+    <t>TD Ameritrade Transfer</t>
   </si>
 </sst>
 </file>
@@ -707,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2:BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,10 +853,11 @@
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="50" width="13.85546875" style="3" customWidth="1"/>
+    <col min="40" max="53" width="13.85546875" style="3" customWidth="1"/>
+    <col min="54" max="54" width="30.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -864,39 +988,51 @@
         <v>59</v>
       </c>
       <c r="AR1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="BB1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC1" t="s">
         <v>9</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1022,26 +1158,42 @@
         <v>89</v>
       </c>
       <c r="AR2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ2" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD2" s="2"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1172,24 +1324,40 @@
         <v>89</v>
       </c>
       <c r="AR3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AS3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" t="s">
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AZ3" s="2"/>
+      <c r="BA3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD3" s="2"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1320,26 +1488,42 @@
         <v>89</v>
       </c>
       <c r="AR4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AV4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
-      <c r="AY4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ4" s="2"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4" s="2"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>101</v>
@@ -1375,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>63</v>
@@ -1441,7 +1625,7 @@
         <v>80</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ5" s="4" t="s">
         <v>82</v>
@@ -1468,26 +1652,42 @@
         <v>89</v>
       </c>
       <c r="AR5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AS5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AV5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
-      <c r="AY5" t="s">
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="2"/>
+      <c r="BA5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD5" s="2"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>101</v>
@@ -1523,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>63</v>
@@ -1589,7 +1789,7 @@
         <v>80</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ6" s="4" t="s">
         <v>82</v>
@@ -1616,26 +1816,42 @@
         <v>89</v>
       </c>
       <c r="AR6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AS6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AV6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
       <c r="AX6" s="4"/>
-      <c r="AY6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ6" s="2"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD6" s="2"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>101</v>
@@ -1671,7 +1887,7 @@
         <v>27</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>63</v>
@@ -1737,7 +1953,7 @@
         <v>80</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ7" s="4" t="s">
         <v>82</v>
@@ -1764,26 +1980,42 @@
         <v>89</v>
       </c>
       <c r="AR7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AS7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AV7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
-      <c r="AY7" t="s">
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AZ7" s="2"/>
+      <c r="BA7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD7" s="2"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>101</v>
@@ -1819,7 +2051,7 @@
         <v>27</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>63</v>
@@ -1885,7 +2117,7 @@
         <v>80</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ8" s="4" t="s">
         <v>82</v>
@@ -1912,37 +2144,1867 @@
         <v>89</v>
       </c>
       <c r="AR8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AS8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AV8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
       <c r="AX8" s="4"/>
-      <c r="AY8" t="s">
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD8" s="2"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2500</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AZ8" s="2"/>
+      <c r="BA9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD9" s="2"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>2500</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD10" s="2"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>2500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD11" s="2"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>2500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD12" s="2"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>2500</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD13" s="2"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>2500</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD14" s="2"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>2500</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD15" s="2"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>2500</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD16" s="2"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>2500</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>2500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>2500</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="S2" r:id="rId2" display="d@gmail.com"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S3" r:id="rId4"/>
-    <hyperlink ref="S5" r:id="rId5"/>
-    <hyperlink ref="S6" r:id="rId6"/>
-    <hyperlink ref="S7" r:id="rId7"/>
-    <hyperlink ref="S8" r:id="rId8"/>
-    <hyperlink ref="B3:B8" r:id="rId9" display="http://preuat.invessence.com:8080/login.xhtml"/>
+    <hyperlink ref="S2" r:id="rId1" display="d@gmail.com"/>
+    <hyperlink ref="S4" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="S13" r:id="rId4"/>
+    <hyperlink ref="S14" r:id="rId5"/>
+    <hyperlink ref="S15" r:id="rId6"/>
+    <hyperlink ref="S16" r:id="rId7"/>
+    <hyperlink ref="S5" r:id="rId8"/>
+    <hyperlink ref="S6" r:id="rId9"/>
+    <hyperlink ref="S7" r:id="rId10"/>
+    <hyperlink ref="S8" r:id="rId11"/>
+    <hyperlink ref="S9" r:id="rId12"/>
+    <hyperlink ref="S10" r:id="rId13"/>
+    <hyperlink ref="S11" r:id="rId14"/>
+    <hyperlink ref="S12" r:id="rId15"/>
+    <hyperlink ref="B6" r:id="rId16"/>
+    <hyperlink ref="B7" r:id="rId17"/>
+    <hyperlink ref="B8" r:id="rId18"/>
+    <hyperlink ref="B9" r:id="rId19"/>
+    <hyperlink ref="B10" r:id="rId20"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="S17" r:id="rId23"/>
+    <hyperlink ref="B17" r:id="rId24"/>
+    <hyperlink ref="S18" r:id="rId25"/>
+    <hyperlink ref="B18" r:id="rId26"/>
+    <hyperlink ref="S19" r:id="rId27"/>
+    <hyperlink ref="B19" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="300">
   <si>
     <t>TCID</t>
   </si>
@@ -211,12 +211,6 @@
     <t>trndate</t>
   </si>
   <si>
-    <t>testfname</t>
-  </si>
-  <si>
-    <t>testlname</t>
-  </si>
-  <si>
     <t>02/11/2000</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>(232) 243-4324</t>
   </si>
   <si>
-    <t>d@gmail.com</t>
-  </si>
-  <si>
     <t>street1</t>
   </si>
   <si>
@@ -250,15 +241,6 @@
     <t>Job</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>BenificiaryFN</t>
-  </si>
-  <si>
-    <t>BenificiarylN</t>
-  </si>
-  <si>
     <t>Mother</t>
   </si>
   <si>
@@ -277,9 +259,6 @@
     <t>Chase</t>
   </si>
   <si>
-    <t>Test bank</t>
-  </si>
-  <si>
     <t>Andover</t>
   </si>
   <si>
@@ -349,9 +328,6 @@
     <t>deliveringfirm</t>
   </si>
   <si>
-    <t>testfirm</t>
-  </si>
-  <si>
     <t>testaccttitle</t>
   </si>
   <si>
@@ -464,6 +440,486 @@
   </si>
   <si>
     <t>TD Ameritrade Transfer</t>
+  </si>
+  <si>
+    <t>testfname1</t>
+  </si>
+  <si>
+    <t>testfname2</t>
+  </si>
+  <si>
+    <t>testfname3</t>
+  </si>
+  <si>
+    <t>testfname4</t>
+  </si>
+  <si>
+    <t>testfname5</t>
+  </si>
+  <si>
+    <t>testfname6</t>
+  </si>
+  <si>
+    <t>testfname7</t>
+  </si>
+  <si>
+    <t>testfname8</t>
+  </si>
+  <si>
+    <t>testfname9</t>
+  </si>
+  <si>
+    <t>testfname10</t>
+  </si>
+  <si>
+    <t>testfname11</t>
+  </si>
+  <si>
+    <t>testfname12</t>
+  </si>
+  <si>
+    <t>testfname13</t>
+  </si>
+  <si>
+    <t>testfname14</t>
+  </si>
+  <si>
+    <t>testfname15</t>
+  </si>
+  <si>
+    <t>testfname16</t>
+  </si>
+  <si>
+    <t>testfname17</t>
+  </si>
+  <si>
+    <t>testfname18</t>
+  </si>
+  <si>
+    <t>testlname1</t>
+  </si>
+  <si>
+    <t>testlname2</t>
+  </si>
+  <si>
+    <t>testlname3</t>
+  </si>
+  <si>
+    <t>testlname4</t>
+  </si>
+  <si>
+    <t>testlname5</t>
+  </si>
+  <si>
+    <t>testlname6</t>
+  </si>
+  <si>
+    <t>testlname7</t>
+  </si>
+  <si>
+    <t>testlname8</t>
+  </si>
+  <si>
+    <t>testlname9</t>
+  </si>
+  <si>
+    <t>testlname10</t>
+  </si>
+  <si>
+    <t>testlname11</t>
+  </si>
+  <si>
+    <t>testlname12</t>
+  </si>
+  <si>
+    <t>testlname13</t>
+  </si>
+  <si>
+    <t>testlname14</t>
+  </si>
+  <si>
+    <t>testlname15</t>
+  </si>
+  <si>
+    <t>testlname16</t>
+  </si>
+  <si>
+    <t>testlname17</t>
+  </si>
+  <si>
+    <t>testlname18</t>
+  </si>
+  <si>
+    <t>street2</t>
+  </si>
+  <si>
+    <t>city2</t>
+  </si>
+  <si>
+    <t>street3</t>
+  </si>
+  <si>
+    <t>city3</t>
+  </si>
+  <si>
+    <t>street4</t>
+  </si>
+  <si>
+    <t>city4</t>
+  </si>
+  <si>
+    <t>street5</t>
+  </si>
+  <si>
+    <t>city5</t>
+  </si>
+  <si>
+    <t>street6</t>
+  </si>
+  <si>
+    <t>city6</t>
+  </si>
+  <si>
+    <t>street7</t>
+  </si>
+  <si>
+    <t>city7</t>
+  </si>
+  <si>
+    <t>street8</t>
+  </si>
+  <si>
+    <t>city8</t>
+  </si>
+  <si>
+    <t>street9</t>
+  </si>
+  <si>
+    <t>city9</t>
+  </si>
+  <si>
+    <t>street10</t>
+  </si>
+  <si>
+    <t>city10</t>
+  </si>
+  <si>
+    <t>street11</t>
+  </si>
+  <si>
+    <t>city11</t>
+  </si>
+  <si>
+    <t>street12</t>
+  </si>
+  <si>
+    <t>city12</t>
+  </si>
+  <si>
+    <t>street13</t>
+  </si>
+  <si>
+    <t>city13</t>
+  </si>
+  <si>
+    <t>street14</t>
+  </si>
+  <si>
+    <t>city14</t>
+  </si>
+  <si>
+    <t>street15</t>
+  </si>
+  <si>
+    <t>city15</t>
+  </si>
+  <si>
+    <t>street16</t>
+  </si>
+  <si>
+    <t>city16</t>
+  </si>
+  <si>
+    <t>street17</t>
+  </si>
+  <si>
+    <t>city17</t>
+  </si>
+  <si>
+    <t>street18</t>
+  </si>
+  <si>
+    <t>city18</t>
+  </si>
+  <si>
+    <t>ABC1</t>
+  </si>
+  <si>
+    <t>ABC2</t>
+  </si>
+  <si>
+    <t>ABC3</t>
+  </si>
+  <si>
+    <t>ABC4</t>
+  </si>
+  <si>
+    <t>ABC5</t>
+  </si>
+  <si>
+    <t>ABC6</t>
+  </si>
+  <si>
+    <t>ABC7</t>
+  </si>
+  <si>
+    <t>ABC8</t>
+  </si>
+  <si>
+    <t>ABC9</t>
+  </si>
+  <si>
+    <t>ABC10</t>
+  </si>
+  <si>
+    <t>ABC11</t>
+  </si>
+  <si>
+    <t>ABC12</t>
+  </si>
+  <si>
+    <t>ABC13</t>
+  </si>
+  <si>
+    <t>ABC14</t>
+  </si>
+  <si>
+    <t>ABC15</t>
+  </si>
+  <si>
+    <t>ABC16</t>
+  </si>
+  <si>
+    <t>ABC17</t>
+  </si>
+  <si>
+    <t>ABC18</t>
+  </si>
+  <si>
+    <t>BenificiaryFN1</t>
+  </si>
+  <si>
+    <t>BenificiaryFN2</t>
+  </si>
+  <si>
+    <t>BenificiaryFN3</t>
+  </si>
+  <si>
+    <t>BenificiaryFN4</t>
+  </si>
+  <si>
+    <t>BenificiaryFN5</t>
+  </si>
+  <si>
+    <t>BenificiaryFN6</t>
+  </si>
+  <si>
+    <t>BenificiaryFN7</t>
+  </si>
+  <si>
+    <t>BenificiaryFN8</t>
+  </si>
+  <si>
+    <t>BenificiaryFN9</t>
+  </si>
+  <si>
+    <t>BenificiaryFN10</t>
+  </si>
+  <si>
+    <t>BenificiaryFN11</t>
+  </si>
+  <si>
+    <t>BenificiaryFN12</t>
+  </si>
+  <si>
+    <t>BenificiaryFN13</t>
+  </si>
+  <si>
+    <t>BenificiaryFN14</t>
+  </si>
+  <si>
+    <t>BenificiaryFN15</t>
+  </si>
+  <si>
+    <t>BenificiaryFN16</t>
+  </si>
+  <si>
+    <t>BenificiaryFN17</t>
+  </si>
+  <si>
+    <t>BenificiaryFN18</t>
+  </si>
+  <si>
+    <t>BenificiarylN1</t>
+  </si>
+  <si>
+    <t>BenificiarylN2</t>
+  </si>
+  <si>
+    <t>BenificiarylN3</t>
+  </si>
+  <si>
+    <t>BenificiarylN4</t>
+  </si>
+  <si>
+    <t>BenificiarylN5</t>
+  </si>
+  <si>
+    <t>BenificiarylN6</t>
+  </si>
+  <si>
+    <t>BenificiarylN7</t>
+  </si>
+  <si>
+    <t>BenificiarylN8</t>
+  </si>
+  <si>
+    <t>BenificiarylN9</t>
+  </si>
+  <si>
+    <t>BenificiarylN10</t>
+  </si>
+  <si>
+    <t>BenificiarylN11</t>
+  </si>
+  <si>
+    <t>BenificiarylN12</t>
+  </si>
+  <si>
+    <t>BenificiarylN13</t>
+  </si>
+  <si>
+    <t>BenificiarylN14</t>
+  </si>
+  <si>
+    <t>BenificiarylN15</t>
+  </si>
+  <si>
+    <t>BenificiarylN16</t>
+  </si>
+  <si>
+    <t>BenificiarylN17</t>
+  </si>
+  <si>
+    <t>BenificiarylN18</t>
+  </si>
+  <si>
+    <t>Test bank1</t>
+  </si>
+  <si>
+    <t>Test bank2</t>
+  </si>
+  <si>
+    <t>Test bank3</t>
+  </si>
+  <si>
+    <t>Test bank4</t>
+  </si>
+  <si>
+    <t>Test bank5</t>
+  </si>
+  <si>
+    <t>Test bank6</t>
+  </si>
+  <si>
+    <t>Test bank7</t>
+  </si>
+  <si>
+    <t>Test bank8</t>
+  </si>
+  <si>
+    <t>Test bank9</t>
+  </si>
+  <si>
+    <t>Test bank10</t>
+  </si>
+  <si>
+    <t>Test bank11</t>
+  </si>
+  <si>
+    <t>Test bank12</t>
+  </si>
+  <si>
+    <t>Test bank13</t>
+  </si>
+  <si>
+    <t>Test bank14</t>
+  </si>
+  <si>
+    <t>Test bank15</t>
+  </si>
+  <si>
+    <t>Test bank16</t>
+  </si>
+  <si>
+    <t>Test bank17</t>
+  </si>
+  <si>
+    <t>Test bank18</t>
+  </si>
+  <si>
+    <t>testfirm1</t>
+  </si>
+  <si>
+    <t>testfirm2</t>
+  </si>
+  <si>
+    <t>testfirm3</t>
+  </si>
+  <si>
+    <t>testfirm4</t>
+  </si>
+  <si>
+    <t>testfirm5</t>
+  </si>
+  <si>
+    <t>testfirm6</t>
+  </si>
+  <si>
+    <t>testfirm7</t>
+  </si>
+  <si>
+    <t>testfirm8</t>
+  </si>
+  <si>
+    <t>testfirm9</t>
+  </si>
+  <si>
+    <t>testfirm10</t>
+  </si>
+  <si>
+    <t>testfirm11</t>
+  </si>
+  <si>
+    <t>testfirm12</t>
+  </si>
+  <si>
+    <t>testfirm13</t>
+  </si>
+  <si>
+    <t>testfirm14</t>
+  </si>
+  <si>
+    <t>testfirm15</t>
+  </si>
+  <si>
+    <t>testfirm16</t>
+  </si>
+  <si>
+    <t>testfirm17</t>
+  </si>
+  <si>
+    <t>testfirm18</t>
   </si>
 </sst>
 </file>
@@ -832,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2:BC17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +1297,8 @@
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="6" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
@@ -849,7 +1306,9 @@
     <col min="11" max="11" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="13.85546875" style="3" customWidth="1"/>
+    <col min="14" max="18" width="13.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="13.85546875" style="3" customWidth="1"/>
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -988,13 +1447,13 @@
         <v>59</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AU1" s="3" t="s">
         <v>60</v>
@@ -1006,19 +1465,19 @@
         <v>62</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AZ1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB1" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="BC1" t="s">
         <v>9</v>
@@ -1032,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1044,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -1068,115 +1527,115 @@
         <v>29</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR2" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4" t="s">
@@ -1186,7 +1645,7 @@
         <v>13</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC2" t="s">
         <v>10</v>
@@ -1198,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1210,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -1231,115 +1690,115 @@
         <v>27</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="T3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR3" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -1350,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC3" t="s">
         <v>10</v>
@@ -1359,10 +1818,10 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1374,7 +1833,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1395,115 +1854,115 @@
         <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AO4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR4" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
@@ -1514,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC4" t="s">
         <v>10</v>
@@ -1523,10 +1982,10 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1538,7 +1997,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1562,112 +2021,112 @@
         <v>29</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AK5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AO5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AP5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR5" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
@@ -1678,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC5" t="s">
         <v>10</v>
@@ -1687,10 +2146,10 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1702,7 +2161,7 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>2500</v>
+        <v>2505</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -1723,115 +2182,115 @@
         <v>27</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="T6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR6" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT6" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AU6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="AW6" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
@@ -1842,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC6" t="s">
         <v>10</v>
@@ -1851,10 +2310,10 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1866,7 +2325,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -1890,112 +2349,112 @@
         <v>29</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="AA7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="AH7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AK7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AL7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AM7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AO7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AP7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR7" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
@@ -2006,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC7" t="s">
         <v>10</v>
@@ -2015,10 +2474,10 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2030,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>2500</v>
+        <v>2507</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -2054,112 +2513,112 @@
         <v>29</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AI8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AK8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AO8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AP8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR8" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
@@ -2170,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC8" t="s">
         <v>10</v>
@@ -2179,10 +2638,10 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2194,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>2500</v>
+        <v>2508</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -2218,112 +2677,112 @@
         <v>29</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="AH9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AK9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AM9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AO9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
+      <c r="AP9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR9" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
@@ -2334,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC9" t="s">
         <v>10</v>
@@ -2343,10 +2802,10 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2358,7 +2817,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>2500</v>
+        <v>2509</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -2379,115 +2838,115 @@
         <v>27</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AO10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AP10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR10" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
@@ -2498,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC10" t="s">
         <v>10</v>
@@ -2507,10 +2966,10 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2522,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>2500</v>
+        <v>2510</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -2543,115 +3002,115 @@
         <v>27</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="V11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="AH11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AI11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AK11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AM11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AO11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI11" s="4" t="s">
+      <c r="AP11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AQ11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR11" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
@@ -2662,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC11" t="s">
         <v>10</v>
@@ -2671,10 +3130,10 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2686,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>2500</v>
+        <v>2511</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -2707,115 +3166,115 @@
         <v>27</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="Z12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="AH12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA12" s="4" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AK12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AL12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG12" s="4" t="s">
+      <c r="AM12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AO12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI12" s="4" t="s">
+      <c r="AP12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AJ12" s="4" t="s">
+      <c r="AQ12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ12" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR12" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="AU12" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
@@ -2826,7 +3285,7 @@
         <v>10</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC12" t="s">
         <v>10</v>
@@ -2835,10 +3294,10 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2850,7 +3309,7 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>2500</v>
+        <v>2512</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -2871,115 +3330,115 @@
         <v>27</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="V13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="AH13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA13" s="4" t="s">
+      <c r="AJ13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AK13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG13" s="4" t="s">
+      <c r="AM13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AO13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AP13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AQ13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ13" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR13" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
@@ -2990,7 +3449,7 @@
         <v>10</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC13" t="s">
         <v>10</v>
@@ -2999,10 +3458,10 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3014,7 +3473,7 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>2500</v>
+        <v>2513</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -3035,115 +3494,115 @@
         <v>27</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="Z14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="AA14" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="AH14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AI14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AK14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AL14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AM14" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AO14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="AP14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ14" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR14" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
@@ -3154,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC14" t="s">
         <v>10</v>
@@ -3163,10 +3622,10 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3178,7 +3637,7 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>2500</v>
+        <v>2514</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -3199,115 +3658,115 @@
         <v>27</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="V15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="AH15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AK15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG15" s="4" t="s">
+      <c r="AM15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AO15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ15" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR15" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
@@ -3318,7 +3777,7 @@
         <v>10</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC15" t="s">
         <v>10</v>
@@ -3327,10 +3786,10 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3342,7 +3801,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>2500</v>
+        <v>2515</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -3363,115 +3822,115 @@
         <v>27</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="V16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="X16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="Z16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="AH16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AK16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AL16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG16" s="4" t="s">
+      <c r="AM16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AO16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
+      <c r="AP16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR16" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="AU16" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
@@ -3482,7 +3941,7 @@
         <v>10</v>
       </c>
       <c r="BB16" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC16" t="s">
         <v>10</v>
@@ -3491,10 +3950,10 @@
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3506,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>2500</v>
+        <v>2516</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -3527,115 +3986,115 @@
         <v>27</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="V17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="Z17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="AA17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="AH17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AI17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AK17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AL17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AM17" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AO17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI17" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AP17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ17" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR17" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="AU17" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AZ17" s="3" t="s">
         <v>10</v>
@@ -3644,7 +4103,7 @@
         <v>10</v>
       </c>
       <c r="BB17" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC17" t="s">
         <v>10</v>
@@ -3652,10 +4111,10 @@
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3667,7 +4126,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>2500</v>
+        <v>2517</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -3688,115 +4147,115 @@
         <v>27</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="V18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="X18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="Z18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="AA18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="AH18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AI18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AK18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AL18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG18" s="4" t="s">
+      <c r="AM18" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH18" s="4" t="s">
+      <c r="AO18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
+      <c r="AP18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ18" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR18" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="AU18" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AZ18" s="3" t="s">
         <v>13</v>
@@ -3805,7 +4264,7 @@
         <v>10</v>
       </c>
       <c r="BB18" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC18" t="s">
         <v>10</v>
@@ -3813,10 +4272,10 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3828,7 +4287,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>2500</v>
+        <v>2518</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -3849,115 +4308,115 @@
         <v>27</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="S19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="V19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="X19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="Z19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="AA19" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="AH19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA19" s="4" t="s">
+      <c r="AI19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AK19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD19" s="4" t="s">
+      <c r="AL19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG19" s="4" t="s">
+      <c r="AM19" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH19" s="4" t="s">
+      <c r="AO19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AI19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
+      <c r="AP19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AK19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ19" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AR19" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AS19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AZ19" s="3" t="s">
         <v>10</v>
@@ -3966,7 +4425,7 @@
         <v>10</v>
       </c>
       <c r="BB19" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC19" t="s">
         <v>10</v>
@@ -3975,36 +4434,20 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="d@gmail.com"/>
-    <hyperlink ref="S4" r:id="rId2"/>
-    <hyperlink ref="S3" r:id="rId3"/>
-    <hyperlink ref="S13" r:id="rId4"/>
-    <hyperlink ref="S14" r:id="rId5"/>
-    <hyperlink ref="S15" r:id="rId6"/>
-    <hyperlink ref="S16" r:id="rId7"/>
-    <hyperlink ref="S5" r:id="rId8"/>
-    <hyperlink ref="S6" r:id="rId9"/>
-    <hyperlink ref="S7" r:id="rId10"/>
-    <hyperlink ref="S8" r:id="rId11"/>
-    <hyperlink ref="S9" r:id="rId12"/>
-    <hyperlink ref="S10" r:id="rId13"/>
-    <hyperlink ref="S11" r:id="rId14"/>
-    <hyperlink ref="S12" r:id="rId15"/>
-    <hyperlink ref="B6" r:id="rId16"/>
-    <hyperlink ref="B7" r:id="rId17"/>
-    <hyperlink ref="B8" r:id="rId18"/>
-    <hyperlink ref="B9" r:id="rId19"/>
-    <hyperlink ref="B10" r:id="rId20"/>
-    <hyperlink ref="B11" r:id="rId21"/>
-    <hyperlink ref="B12" r:id="rId22"/>
-    <hyperlink ref="S17" r:id="rId23"/>
-    <hyperlink ref="B17" r:id="rId24"/>
-    <hyperlink ref="S18" r:id="rId25"/>
-    <hyperlink ref="B18" r:id="rId26"/>
-    <hyperlink ref="S19" r:id="rId27"/>
-    <hyperlink ref="B19" r:id="rId28"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B19" r:id="rId11"/>
+    <hyperlink ref="S3:S19" r:id="rId12" display="d@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="318">
   <si>
     <t>TCID</t>
   </si>
@@ -920,6 +920,60 @@
   </si>
   <si>
     <t>testfirm18</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>2510</t>
+  </si>
+  <si>
+    <t>2511</t>
+  </si>
+  <si>
+    <t>2512</t>
+  </si>
+  <si>
+    <t>2513</t>
+  </si>
+  <si>
+    <t>2514</t>
+  </si>
+  <si>
+    <t>2515</t>
+  </si>
+  <si>
+    <t>2516</t>
+  </si>
+  <si>
+    <t>2517</t>
+  </si>
+  <si>
+    <t>2518</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2:BC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,8 +1556,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>2501</v>
+      <c r="F2" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -1668,8 +1722,8 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>2502</v>
+      <c r="F3" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -1832,8 +1886,8 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
-        <v>2503</v>
+      <c r="F4" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1996,8 +2050,8 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>2504</v>
+      <c r="F5" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -2160,8 +2214,8 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>2505</v>
+      <c r="F6" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -2324,8 +2378,8 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>2506</v>
+      <c r="F7" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -2488,8 +2542,8 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>2507</v>
+      <c r="F8" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -2652,8 +2706,8 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>2508</v>
+      <c r="F9" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -2816,8 +2870,8 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>2509</v>
+      <c r="F10" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -2980,8 +3034,8 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>2510</v>
+      <c r="F11" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -3144,8 +3198,8 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>2511</v>
+      <c r="F12" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -3308,8 +3362,8 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>2512</v>
+      <c r="F13" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -3472,8 +3526,8 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>2513</v>
+      <c r="F14" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -3636,8 +3690,8 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="F15">
-        <v>2514</v>
+      <c r="F15" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -3800,8 +3854,8 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
-        <v>2515</v>
+      <c r="F16" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -3964,8 +4018,8 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17">
-        <v>2516</v>
+      <c r="F17" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -4125,8 +4179,8 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
-        <v>2517</v>
+      <c r="F18" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -4286,8 +4340,8 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19">
-        <v>2518</v>
+      <c r="F19" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
